--- a/slides/data/journal_1879.xlsx
+++ b/slides/data/journal_1879.xlsx
@@ -8,6 +8,280 @@
   <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C173">
+      <text>
+        <t xml:space="preserve">Correct 'saur' to 'saws'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C170">
+      <text>
+        <t xml:space="preserve">correct 'pall' to 'pull'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C159">
+      <text>
+        <t xml:space="preserve">Correct 'attornan' to 'ottoman'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C149">
+      <text>
+        <t xml:space="preserve">Correct 'bushed' to 'bushel, 'sewed' to 'sowed'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C131">
+      <text>
+        <t xml:space="preserve">Correct 'attendan' to 'attendance'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C125">
+      <text>
+        <t xml:space="preserve">Correct 'lacalth' to 'health'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C124">
+      <text>
+        <t xml:space="preserve">'sond' is probably 'sent'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C119">
+      <text>
+        <t xml:space="preserve">'warts' might be 'worth'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C114">
+      <text>
+        <t xml:space="preserve">Correct both 'castero' to 'casters'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C113">
+      <text>
+        <t xml:space="preserve">Remove 'see t', correct 'castero' to 'casters'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C112">
+      <text>
+        <t xml:space="preserve">Caster should be plural
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C110">
+      <text>
+        <t xml:space="preserve">'real' is likely 'read' (reed?)
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C108">
+      <text>
+        <t xml:space="preserve">correct 'stem' to 'stern'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C106">
+      <text>
+        <t xml:space="preserve">Correct 'went to' to 'with'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C102">
+      <text>
+        <t xml:space="preserve">Correct 'vis' to 'via'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C78">
+      <text>
+        <t xml:space="preserve">'Castus' is likely 'casters'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C95">
+      <text>
+        <t xml:space="preserve">Correct 'blusling' to 'blustering', 'coasters' could be 'casters'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C93">
+      <text>
+        <t xml:space="preserve">Correct 'windluss' to 'windlass', &amp;e could be 'the', 'castors' is likely 'casters', correct 'Stoan' to 'Sloan'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C89">
+      <text>
+        <t xml:space="preserve">The second 'above' could be 'drove'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C87">
+      <text>
+        <t xml:space="preserve">'Sloan' probably only has 1 A, the X might be a &amp;, correct 'Wamn Smithal' to 'Warren Smith of'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C73">
+      <text>
+        <t xml:space="preserve">correct 'jilboans' to 'till noon', no solid ideas for 'fhing' though. Could be 'thing', but that doesn't make much contextual sense
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C70">
+      <text>
+        <t xml:space="preserve">Correct 'reef' to 'reed'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C66">
+      <text>
+        <t xml:space="preserve">'morning' could be 'moving'? scan is blurry so not sure
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C58">
+      <text>
+        <t xml:space="preserve">Correct 'et' to 'wet'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C33">
+      <text>
+        <t xml:space="preserve">correct 'hoki' to 'broke'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C32">
+      <text>
+        <t xml:space="preserve">correct 'Ld buing' to 'it being'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C30">
+      <text>
+        <t xml:space="preserve">'Aux' might be 'axe'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C23">
+      <text>
+        <t xml:space="preserve">'full' could be 'fell'? Not sure on this one
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C20">
+      <text>
+        <t xml:space="preserve">'boat' is probably 'but'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C19">
+      <text>
+        <t xml:space="preserve">I think the symbol is meant to be a + instead of $
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C18">
+      <text>
+        <t xml:space="preserve">No period after 'good'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C17">
+      <text>
+        <t xml:space="preserve">Correct 'stram' to 'stream'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C15">
+      <text>
+        <t xml:space="preserve">Correct 'on' to 'one'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K15">
+      <text>
+        <t xml:space="preserve">Could add 1 load wood to this section
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C12">
+      <text>
+        <t xml:space="preserve">Correct 'any' to 'my'
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D2">
+      <text>
+        <t xml:space="preserve">Eureka House is in Winter Harbor
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C3">
+      <text>
+        <t xml:space="preserve">Add an 'a' between 'after' and 'horse', correct 'fale' to 'gale'.
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C2">
+      <text>
+        <t xml:space="preserve">Correct 'mueh' to 'much', 'flar' could potentially be 'far'?
+	-Mabon Young</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D361">
+      <text>
+        <t xml:space="preserve">South Gouldsboro
+	-Kristin Zunino</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D354">
+      <text>
+        <t xml:space="preserve">No winter Harbor mentioned
+	-Kristin Zunino</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D327">
+      <text>
+        <t xml:space="preserve">Lower Harbor
+	-Kristin Zunino</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D286">
+      <text>
+        <t xml:space="preserve">South Gouldsboro
+	-Kristin Zunino</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D256">
+      <text>
+        <t xml:space="preserve">West Gouldsboro***
+	-Kristin Zunino</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D194">
+      <text>
+        <t xml:space="preserve">Back Shore
+	-Kristin Zunino</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22783,7 +23057,7 @@
         <v>653</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>36</v>
+        <v>342</v>
       </c>
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
@@ -53036,6 +53310,7 @@
       <formula1>"write,read,read and write,no letter"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>